--- a/trend_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
+++ b/trend_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.229886323274283</v>
+        <v>0.770113676725717</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.779903864209971</v>
+        <v>0.220096135790029</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.446809553680264</v>
+        <v>0.553190446319736</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.489331466951363</v>
+        <v>0.510668533048637</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.885160688405515</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0421052631578947</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.494736842105263</v>
+        <v>0.776119402985075</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3.525</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0111018237082067</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0062659591634249</v>
+        <v>-0.187574240961123</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0312397554700617</v>
+        <v>0.136229498149887</v>
       </c>
       <c r="N30" t="n">
-        <v>1.11018237082067</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.408540800223933</v>
+        <v>0.758439064798938</v>
       </c>
       <c r="G31" t="n">
-        <v>0.218009478672986</v>
+        <v>0.050314465408805</v>
       </c>
       <c r="H31" t="n">
-        <v>0.109004739336493</v>
+        <v>0.477987421383648</v>
       </c>
       <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.008</v>
-      </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.0070221093106289</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0166582015530093</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0294182856566521</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.702210931062895</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3280,11 +3280,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.99212799407407</v>
+        <v>0.010004133787028</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0521327014218009</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.488151658767773</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>40</v>
+        <v>10.88</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.38323164317273</v>
+        <v>-0.0313875812311753</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.43092733262418</v>
+        <v>-0.0488154700982782</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.415763315094668</v>
+        <v>-0.0127802092574137</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.45807910793183</v>
+        <v>-0.288488798080655</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.627286833960656</v>
+        <v>0.0001235070549952</v>
       </c>
       <c r="G33" t="n">
-        <v>0.78921568627451</v>
+        <v>0.23463687150838</v>
       </c>
       <c r="H33" t="n">
-        <v>0.426470588235294</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="I33" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0057926318325173</v>
+        <v>0.007</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0002490638121277</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.55805445896746</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.935172651296951</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0391061452513966</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5139664804469271</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.96140163348314</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.213541666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.567708333333333</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.0525</v>
+        <v>39</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0003095561301443</v>
+        <v>-0.8484320557491291</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0010606086284522</v>
+        <v>-2.00595884666503</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.5896307240845</v>
+        <v>-2.17546680961315</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.997246490726401</v>
+        <v>0.830619552856662</v>
       </c>
       <c r="G35" t="n">
-        <v>0.042654028436019</v>
+        <v>0.774566473988439</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5260663507109</v>
+        <v>0.450867052023121</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J35" t="n">
-        <v>0.056</v>
+        <v>0.0062870959729973</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0018017348094785</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0003334933248008</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.79184654631083</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.758332628492576</v>
+        <v>0.518985897269761</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.592356687898089</v>
       </c>
       <c r="H36" t="n">
-        <v>0.914691943127962</v>
+        <v>0.0828025477707006</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.48</v>
+        <v>0.001</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0131001519756839</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.053920278033886</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.021377916243573</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.376441148726549</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3735,46 +3735,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.40324797025367</v>
+        <v>0.29711315486464</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.23125</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.63125</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.452</v>
+        <v>0.046</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0139709599025653</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.142471337026116</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0800457528060609</v>
+        <v>0.0003628351502166</v>
       </c>
       <c r="N37" t="n">
-        <v>-3.09092033242596</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3812,7 +3812,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3822,14 +3826,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3837,31 +3841,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0.9172960096823221</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.5909090909090911</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>110</v>
+        <v>8.285</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.15531732321409</v>
+        <v>0.0100251685015166</v>
       </c>
       <c r="L38" t="n">
-        <v>-12.7370931853861</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="M38" t="n">
-        <v>6.28279077936996</v>
+        <v>0.0188551429585975</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.95937938474008</v>
+        <v>0.121003844315228</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3874,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3909,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3924,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.791275963598461</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.5418994413407821</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>5.227</v>
+        <v>0.055</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0601331132371623</v>
+        <v>-0.0002183394907549</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.66805862789537</v>
+        <v>-0.0009716577467911</v>
       </c>
       <c r="M39" t="n">
-        <v>0.988553530983972</v>
+        <v>0.0004001711003881</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.15043262363042</v>
+        <v>-0.396980892281703</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3957,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3986,7 +3990,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3996,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4011,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.295752518497458</v>
+        <v>0.901316278170969</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="H40" t="n">
+        <v>0.41340782122905</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>0.4645</v>
+        <v>0.154</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0065554038236441</v>
+        <v>-0.0009993768123537001</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0301845970307447</v>
+        <v>-0.0028852929491045</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0128679548556875</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.41128177042931</v>
+        <v>-0.648945982047858</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4044,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4073,7 +4081,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4083,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.428445211206309</v>
+        <v>0.7039259533037679</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8</v>
+        <v>0.335195530726257</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>107</v>
+        <v>0.017</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.59390243902439</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.99802765993786</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="M41" t="n">
-        <v>1.31203069227047</v>
+        <v>0.0002315058775673</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.5550490084340099</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4160,7 +4172,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4170,14 +4186,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4185,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>0.414500877079831</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.93854748603352</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.3885</v>
+        <v>3.91</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.06457348111658449</v>
+        <v>0.0029535947170645</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.359501817007905</v>
+        <v>-0.046242091370087</v>
       </c>
       <c r="M42" t="n">
-        <v>0.190091994643769</v>
+        <v>0.0487909658158531</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.19835726299684</v>
+        <v>0.075539506830296</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4247,7 +4263,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4257,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.615408445713287</v>
+        <v>0.885160688405515</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7</v>
+        <v>0.494736842105263</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>104.5</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0655250218923614</v>
+        <v>0.0111018237082067</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.743381382160528</v>
+        <v>-0.0062659591634249</v>
       </c>
       <c r="M43" t="n">
-        <v>0.339955382610982</v>
+        <v>0.0312397554700617</v>
       </c>
       <c r="N43" t="n">
-        <v>0.06270337023192479</v>
+        <v>1.11018237082067</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4305,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4334,7 +4354,1253 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.408540800223933</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.218009478672986</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.109004739336493</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.99212799407407</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0521327014218009</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.488151658767773</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>40</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1.38323164317273</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-2.43092733262418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.415763315094668</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-3.45807910793183</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.627286833960656</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.78921568627451</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.426470588235294</v>
+      </c>
+      <c r="I46" t="n">
+        <v>48</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0057926318325173</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.96140163348314</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.213541666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.567708333333333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.0003095561301443</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0010606086284522</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.5896307240845</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.997246490726401</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.042654028436019</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5260663507109</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.001003434065934</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0018017348094785</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.0003334933248008</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.79184654631083</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.758332628492576</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.914691943127962</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0131001519756839</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.053920278033886</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.021377916243573</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.376441148726549</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0139709599025653</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.142471337026116</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0800457528060609</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-3.09092033242596</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>110</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-2.15531732321409</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-12.7370931853861</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6.28279077936996</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.95937938474008</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0601331132371623</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.66805862789537</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.988553530983972</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.15043262363042</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0065554038236441</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0301845970307447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0128679548556875</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.41128177042931</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.428445211206309</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>107</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.59390243902439</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-2.99802765993786</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.31203069227047</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.5550490084340099</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.3885</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.06457348111658449</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.359501817007905</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.190091994643769</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.19835726299684</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.801552810668512</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>101</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.219765342960289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-1.06507779253476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.46410031513468</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.217589448475533</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rangitikei at Mangaweka</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.615408445713287</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0655250218923614</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.743381382160528</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.339955382610982</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06270337023192479</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1840431.652</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5589532.919</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
+++ b/trend_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0423610325738291</v>
+        <v>0.954531081798624</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.825</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.525</v>
       </c>
       <c r="K2" t="n">
-        <v>0.652232142857143</v>
+        <v>-0.923074786531361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01061156526873</v>
+        <v>-2.83291782081079</v>
       </c>
       <c r="M2" t="n">
-        <v>1.39551699785614</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.3846604215457</v>
+        <v>-26.1865187668471</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.970851540592749</v>
+        <v>0.387424211081439</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0.673076923076923</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="K3" t="n">
-        <v>0.216665062644362</v>
+        <v>-0.0313848996514842</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0262474519712847</v>
+        <v>-0.119566515358092</v>
       </c>
       <c r="M3" t="n">
-        <v>0.447427083115921</v>
+        <v>0.0770033470507288</v>
       </c>
       <c r="N3" t="n">
-        <v>21.6665062644362</v>
+        <v>-3.80423026078596</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.770113676725717</v>
+        <v>0.252346342651449</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.75</v>
+        <v>10.68</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0486843107867719</v>
+        <v>-0.0183871106592403</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0609811467988271</v>
+        <v>-0.079927179617864</v>
       </c>
       <c r="M4" t="n">
-        <v>0.122926692900756</v>
+        <v>0.0449823855852178</v>
       </c>
       <c r="N4" t="n">
-        <v>0.45287730964439</v>
+        <v>-0.172163957483524</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.828941303336696</v>
+        <v>0.0605890767635879</v>
       </c>
       <c r="G5" t="n">
-        <v>0.203389830508475</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="H5" t="n">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0002298615481434</v>
+        <v>0.0005217857142857</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0012670330926645</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.0012552741833148</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.5540172015943</v>
+        <v>6.52232142857143</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.825627214694068</v>
+        <v>0.241717087834905</v>
       </c>
       <c r="G6" t="n">
         <v>0.0847457627118644</v>
       </c>
       <c r="H6" t="n">
-        <v>0.542372881355932</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.37175324675325</v>
+        <v>2.12973760932945</v>
       </c>
       <c r="L6" t="n">
-        <v>-8.135846062936301</v>
+        <v>-3.14926424272574</v>
       </c>
       <c r="M6" t="n">
-        <v>1.53762511241318</v>
+        <v>8.86371631040477</v>
       </c>
       <c r="N6" t="n">
-        <v>-9.48701298701299</v>
+        <v>7.09912536443149</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.331267351609442</v>
+        <v>0.691112384686239</v>
       </c>
       <c r="G7" t="n">
-        <v>0.818181818181818</v>
+        <v>0.781818181818182</v>
       </c>
       <c r="H7" t="n">
-        <v>0.490909090909091</v>
+        <v>0.381818181818182</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0050875506052285</v>
+        <v>0.005</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.87333676389773e-05</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0005361654860228</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.368219779862724</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.543711199537351</v>
+        <v>0.987103066140087</v>
       </c>
       <c r="G8" t="n">
         <v>0.6610169491525421</v>
       </c>
       <c r="H8" t="n">
-        <v>0.101694915254237</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0.001</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.945853172050495</v>
+        <v>0.0486272142195016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.23728813559322</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="H9" t="n">
-        <v>0.728813559322034</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0.047</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0037941779446646</v>
+        <v>0.0014967891483516</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0107143023913087</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0053232283615616</v>
       </c>
       <c r="N9" t="n">
-        <v>-8.072719031201331</v>
+        <v>3.18465776245032</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.220096135790029</v>
+        <v>0.170344295256892</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.813559322033898</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.32</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0208884803921569</v>
+        <v>-0.0259042553191484</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0614771836192959</v>
+        <v>-0.0652427502805594</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0249041826435253</v>
+        <v>0.0196857231168641</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.251063466251886</v>
+        <v>-0.311162226055836</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,13 +1388,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.991668752716893</v>
+        <v>0.138250240041716</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.711864406779661</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1403,16 +1403,16 @@
         <v>0.051</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005420645867111</v>
+        <v>0.0017464531004709</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0132934986832151</v>
+        <v>-0.0016557339194305</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0019877551020408</v>
+        <v>0.0066785103345331</v>
       </c>
       <c r="N11" t="n">
-        <v>-10.6287173864922</v>
+        <v>3.4244178440607</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.812260940098028</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.135593220338983</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0.508474576271186</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.291642961942689</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.64151719103049</v>
+        <v>-0.0072771501263714</v>
       </c>
       <c r="M12" t="n">
-        <v>0.360674674774335</v>
+        <v>0.0200239371792003</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.24047735491877</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.997395491082579</v>
+        <v>0.0357505877900832</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.474576271186441</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.16</v>
+        <v>0.021</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0175851505418445</v>
+        <v>0.0029973622508792</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0297791125852552</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0093997883772538</v>
+        <v>0.005797619047619</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.9907190886528</v>
+        <v>14.2731535756155</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1657,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.643788875060667</v>
+        <v>0.414296537609323</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.559322033898305</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.016</v>
+        <v>4.86</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.158217682528258</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.002525479492496</v>
+        <v>-0.349181275158223</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0010797532182341</v>
+        <v>0.767558742913922</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.25550787095181</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.834099274449224</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.010989010989011</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9515309057858</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.57</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.349529532967033</v>
+        <v>-0.127264808362369</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.50517600520447</v>
+        <v>-0.419336377539299</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0783491000337716</v>
+        <v>0.0669038263500502</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.64834864260466</v>
+        <v>-4.04015264642442</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.824840710563714</v>
+        <v>0.248133293898503</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H16" t="n">
-        <v>0.770833333333333</v>
+        <v>0.57843137254902</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>0.88</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.140540718349929</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.442977368370624</v>
+        <v>-0.0745512765525517</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0946476645769103</v>
+        <v>0.0195618783880824</v>
       </c>
       <c r="N16" t="n">
-        <v>-3.65040826882932</v>
+        <v>-1.14026598401599</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.439067886767732</v>
+        <v>0.739600848597707</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0471698113207547</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.547169811320755</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>10.65</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0529883548267738</v>
+        <v>-0.0153971148223454</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0424181942794855</v>
+        <v>0.0343918258631582</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.09421916112056759</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.553190446319736</v>
+        <v>0.175957357127556</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="H18" t="n">
-        <v>0.888888888888889</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>10.71</v>
+        <v>0.008</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0019991789819375</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0283822606339984</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0268704858188527</v>
+        <v>0.0003312012434283</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0186664704195851</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,28 +2116,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.249911554727214</v>
+        <v>0.394833508731778</v>
       </c>
       <c r="G19" t="n">
-        <v>0.151260504201681</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H19" t="n">
-        <v>0.142857142857143</v>
+        <v>0.495798319327731</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.59362815382397</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0002786780139448</v>
+        <v>2.0163323466511</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.870902110476976</v>
+        <v>0.313914249377251</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.849557522123894</v>
       </c>
       <c r="H20" t="n">
-        <v>0.487394957983193</v>
+        <v>0.433628318584071</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>0.0055931064437715</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.33791208791209</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-3.13209284536153</v>
+        <v>-4.07102075222384e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.262816452932078</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.45970695970696</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,19 +2298,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.303693020521717</v>
+        <v>0.984222390388982</v>
       </c>
       <c r="G21" t="n">
-        <v>0.849557522123894</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H21" t="n">
-        <v>0.433628318584071</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0055931064437715</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.980563692246229</v>
+        <v>0.0024912204494716</v>
       </c>
       <c r="G22" t="n">
-        <v>0.495798319327731</v>
+        <v>0.218487394957983</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.0471</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0012542925824175</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0033271698737628</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.66304157625814</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,35 +2476,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0012062194349872</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26890756302521</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.672268907563025</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.038</v>
+        <v>8.31</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0006997126436781</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.017476076555024</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0025085851648351</v>
+        <v>0.0175609576529431</v>
       </c>
       <c r="N23" t="n">
-        <v>1.84134906231095</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.510668533048637</v>
+        <v>0.0175391450698089</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H24" t="n">
-        <v>0.64957264957265</v>
+        <v>0.65546218487395</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>8.31</v>
+        <v>0.053</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0018105679156908</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0150154645668073</v>
+        <v>0.0004442885350358</v>
       </c>
       <c r="M24" t="n">
-        <v>0.016061859928109</v>
+        <v>0.0035737062570863</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.41616587866201</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.009325205442159999</v>
+        <v>0.416447724335859</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0336134453781513</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H25" t="n">
-        <v>0.571428571428571</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.048</v>
+        <v>0.161</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0014295499021526</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000499433679951</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0034616607708642</v>
+        <v>0.0044537775409377</v>
       </c>
       <c r="N25" t="n">
-        <v>2.978228962818</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>0.159351452359003</v>
       </c>
       <c r="G26" t="n">
-        <v>0.100840336134454</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H26" t="n">
-        <v>0.394957983193277</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>0.019</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.134908295838806</v>
+        <v>-0.0002004727066295</v>
       </c>
       <c r="M26" t="n">
-        <v>0.19991789819376</v>
+        <v>0.001194959282732</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.6279814368457</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.416504924855644</v>
+        <v>0.11487572544421</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.495798319327731</v>
+        <v>0.974789915966387</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.15</v>
+        <v>4.57</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0802747252747253</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0016354401533239</v>
+        <v>-0.0533962388690321</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0033416308999877</v>
+        <v>0.211343312648285</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.75655853992834</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.230376128175061</v>
+        <v>0.718831744402007</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.0070921985815602</v>
       </c>
       <c r="H28" t="n">
-        <v>0.403361344537815</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.016</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001667047010497</v>
+        <v>-0.0393486288204539</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0002496582365003</v>
+        <v>-0.229346647172575</v>
       </c>
       <c r="M28" t="n">
-        <v>0.000748974709501</v>
+        <v>0.06279218875693091</v>
       </c>
       <c r="N28" t="n">
-        <v>1.04190438156093</v>
+        <v>-1.22964465063918</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.248624146505011</v>
+        <v>0.388222784623672</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0516129032258065</v>
       </c>
       <c r="H29" t="n">
-        <v>0.983193277310924</v>
+        <v>0.47741935483871</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.69</v>
+        <v>0.9</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0358478735005452</v>
+        <v>-0.0014334772370486</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0561931975244845</v>
+        <v>-0.0251455107685165</v>
       </c>
       <c r="M29" t="n">
-        <v>0.121949917898194</v>
+        <v>0.014874997989426</v>
       </c>
       <c r="N29" t="n">
-        <v>0.971487086735644</v>
+        <v>-0.159275248560963</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.10413675905423</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.776119402985075</v>
+        <v>0.84180790960452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.525</v>
+        <v>10.79</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.0175283965399705</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.187574240961123</v>
+        <v>-0.0339729593800503</v>
       </c>
       <c r="M30" t="n">
-        <v>0.136229498149887</v>
+        <v>0.0034029416592457</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-0.162450384985825</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.758439064798938</v>
+        <v>2.64568706298622e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>0.050314465408805</v>
+        <v>0.195530726256983</v>
       </c>
       <c r="H31" t="n">
-        <v>0.477987421383648</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0070221093106289</v>
+        <v>0.0002502569373072</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0166582015530093</v>
+        <v>0.0001425231687985</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0294182856566521</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="N31" t="n">
-        <v>0.702210931062895</v>
+        <v>3.57509910438996</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.904609772278784</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0391061452513966</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5195530726256981</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.010004133787028</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.870056497175141</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.88</v>
+        <v>39</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0313875812311753</v>
+        <v>-0.750770811921891</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0488154700982782</v>
+        <v>-2.08454474379915</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0127802092574137</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.288488798080655</v>
+        <v>-1.92505336390228</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0001235070549952</v>
+        <v>0.924205958455488</v>
       </c>
       <c r="G33" t="n">
-        <v>0.23463687150838</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="H33" t="n">
-        <v>0.106145251396648</v>
+        <v>0.453488372093023</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>0.0061308264437037</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0002490638121277</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.000334478021978</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55805445896746</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.935172651296951</v>
+        <v>0.76446753349209</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0391061452513966</v>
+        <v>0.609467455621302</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5139664804469271</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>39</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.8484320557491291</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.00595884666503</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.17546680961315</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.830619552856662</v>
+        <v>0.0216695751187248</v>
       </c>
       <c r="G35" t="n">
-        <v>0.774566473988439</v>
+        <v>0.218934911242604</v>
       </c>
       <c r="H35" t="n">
-        <v>0.450867052023121</v>
+        <v>0.627218934911243</v>
       </c>
       <c r="I35" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0062870959729973</v>
+        <v>0.0471</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0003885638297872</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0017229274052023</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.824976284049329</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.518985897269761</v>
+        <v>0.748186017139436</v>
       </c>
       <c r="G36" t="n">
-        <v>0.592356687898089</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0828025477707006</v>
+        <v>0.5657142857142859</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0054732767232767</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0044195633368514</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0150264013883628</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.066022638398996</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.29711315486464</v>
+        <v>0.230344910878995</v>
       </c>
       <c r="G37" t="n">
-        <v>0.23125</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="H37" t="n">
-        <v>0.63125</v>
+        <v>0.664804469273743</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.046</v>
+        <v>0.055</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.0004695679245134</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.0002505065498391</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0003628351502166</v>
+        <v>0.0014051008814533</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.853759862751778</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9172960096823221</v>
+        <v>0.765259015704746</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5909090909090911</v>
+        <v>0.435754189944134</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>8.285</v>
+        <v>0.16</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0100251685015166</v>
+        <v>-0.0003537710329983</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0011101823708206</v>
+        <v>-0.0026117189719905</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0188551429585975</v>
+        <v>0.0008361664716326</v>
       </c>
       <c r="N38" t="n">
-        <v>0.121003844315228</v>
+        <v>-0.221106895623973</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3924,35 +3924,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.791275963598461</v>
+        <v>0.459654578148452</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5418994413407821</v>
+        <v>0.363128491620112</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.055</v>
+        <v>0.02</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0002183394907549</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0009716577467911</v>
+        <v>-0.0002508585164835</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0004001711003881</v>
+        <v>0.0004283343355645</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.396980892281703</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.901316278170969</v>
+        <v>0.287210209543955</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0167597765363128</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.41340782122905</v>
+        <v>0.93854748603352</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.154</v>
+        <v>4.76</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0009993768123537001</v>
+        <v>0.0204718818880705</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0028852929491045</v>
+        <v>-0.0429060275631487</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.07989964440222749</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.648945982047858</v>
+        <v>0.43008155227039</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4110,28 +4110,28 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7039259533037679</v>
+        <v>0.480207429549083</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0223463687150838</v>
+        <v>0.0404040404040404</v>
       </c>
       <c r="H41" t="n">
-        <v>0.335195530726257</v>
+        <v>0.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>0.017</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.000334478021978</v>
+        <v>-0.0179628519583965</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0002315058775673</v>
+        <v>0.0135028642676089</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.414500877079831</v>
+        <v>0.180205253847773</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.20627802690583</v>
       </c>
       <c r="H42" t="n">
-        <v>0.93854748603352</v>
+        <v>0.103139013452915</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.91</v>
+        <v>0.008</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0029535947170645</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.046242091370087</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0487909658158531</v>
+        <v>0.0001251284686536</v>
       </c>
       <c r="N42" t="n">
-        <v>0.075539506830296</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.885160688405515</v>
+        <v>0.950916231392374</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0421052631578947</v>
+        <v>0.0493273542600897</v>
       </c>
       <c r="H43" t="n">
-        <v>0.494736842105263</v>
+        <v>0.488789237668161</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0111018237082067</v>
+        <v>-0.767600700525394</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0062659591634249</v>
+        <v>-1.72266760235401</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0312397554700617</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.11018237082067</v>
+        <v>-1.91900175131349</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4368,14 +4368,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.408540800223933</v>
+        <v>0.669628903671552</v>
       </c>
       <c r="G44" t="n">
-        <v>0.218009478672986</v>
+        <v>0.7906976744186049</v>
       </c>
       <c r="H44" t="n">
-        <v>0.109004739336493</v>
+        <v>0.413953488372093</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="J44" t="n">
-        <v>0.008</v>
+        <v>0.0055035635964501</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4470,35 +4470,35 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.99212799407407</v>
+        <v>0.7328965364116</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0521327014218009</v>
+        <v>0.200980392156863</v>
       </c>
       <c r="H45" t="n">
-        <v>0.488151658767773</v>
+        <v>0.563725490196078</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>40</v>
+        <v>0.0535</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.38323164317273</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-2.43092733262418</v>
+        <v>-0.0005854937764354</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.415763315094668</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-3.45807910793183</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.627286833960656</v>
+        <v>0.948887108745892</v>
       </c>
       <c r="G46" t="n">
-        <v>0.78921568627451</v>
+        <v>0.0403587443946188</v>
       </c>
       <c r="H46" t="n">
-        <v>0.426470588235294</v>
+        <v>0.645739910313901</v>
       </c>
       <c r="I46" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0057926318325173</v>
+        <v>0.058</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-0.0005465261260347</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.0012567354947291</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-0.942286424197805</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4652,35 +4652,35 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.96140163348314</v>
+        <v>0.397194829496365</v>
       </c>
       <c r="G47" t="n">
-        <v>0.213541666666667</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.567708333333333</v>
+        <v>0.910313901345291</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0525</v>
+        <v>3.66</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0003095561301443</v>
+        <v>0.0049899030996177</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0010606086284522</v>
+        <v>-0.035671477472544</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.0476515949870092</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.5896307240845</v>
+        <v>0.136336150262781</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4732,46 +4732,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.997246490726401</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.042654028436019</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.5260663507109</v>
-      </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.056</v>
+        <v>0.438</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0195186352204483</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0018017348094785</v>
+        <v>-0.142471337026116</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0003334933248008</v>
+        <v>0.0622699481774426</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.79184654631083</v>
+        <v>-4.45630941106126</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4809,11 +4809,7 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4823,46 +4819,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.758332628492576</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.914691943127962</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.48</v>
+        <v>101.67</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0131001519756839</v>
+        <v>-1.4356981662689</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.053920278033886</v>
+        <v>-12.7370931853861</v>
       </c>
       <c r="M49" t="n">
-        <v>0.021377916243573</v>
+        <v>6.19560009762211</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.376441148726549</v>
+        <v>-1.41211583187656</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4871,7 +4867,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4900,11 +4896,7 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4914,7 +4906,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4929,7 +4921,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4941,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.452</v>
+        <v>5.72</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0139709599025653</v>
+        <v>-0.100613478435651</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.142471337026116</v>
+        <v>-1.66805862789537</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0800457528060609</v>
+        <v>0.5233476820269301</v>
       </c>
       <c r="N50" t="n">
-        <v>-3.09092033242596</v>
+        <v>-1.75897689572817</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5001,11 +4993,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5016,7 +5008,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.5</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5028,19 +5020,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>110</v>
+        <v>0.445</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.15531732321409</v>
+        <v>-0.0026814368117462</v>
       </c>
       <c r="L51" t="n">
-        <v>-12.7370931853861</v>
+        <v>-0.0279805959269245</v>
       </c>
       <c r="M51" t="n">
-        <v>6.28279077936996</v>
+        <v>0.0128679548556875</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.95937938474008</v>
+        <v>-0.602570070055326</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5088,18 +5080,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5109,25 +5101,25 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.227</v>
+        <v>102.835</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0601331132371623</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.66805862789537</v>
+        <v>-2.80333244058695</v>
       </c>
       <c r="M52" t="n">
-        <v>0.988553530983972</v>
+        <v>1.31203069227047</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.15043262363042</v>
+        <v>0</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5175,7 +5167,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5190,7 +5182,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.295752518497458</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5202,19 +5194,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4645</v>
+        <v>5.3885</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0065554038236441</v>
+        <v>0.0871034285714285</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0301845970307447</v>
+        <v>-0.241993684835935</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0128679548556875</v>
+        <v>0.233478568238782</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.41128177042931</v>
+        <v>1.61646893516616</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5223,7 +5215,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5262,11 +5254,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -5277,31 +5269,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.428445211206309</v>
+        <v>0.371278410963289</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>107</v>
+        <v>0.457</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.59390243902439</v>
+        <v>-0.0021432762836185</v>
       </c>
       <c r="L54" t="n">
-        <v>-2.99802765993786</v>
+        <v>-0.0116672658755917</v>
       </c>
       <c r="M54" t="n">
-        <v>1.31203069227047</v>
+        <v>0.0073578686748205</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.5550490084340099</v>
+        <v>-0.468988245868399</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5349,11 +5341,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5364,31 +5356,31 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>0.636394959175223</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>5.3885</v>
+        <v>101.67</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.06457348111658449</v>
+        <v>0.108715015548645</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.359501817007905</v>
+        <v>-1.26259683170601</v>
       </c>
       <c r="M55" t="n">
-        <v>0.190091994643769</v>
+        <v>1.30159647383563</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.19835726299684</v>
+        <v>0.106929296300428</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5436,7 +5428,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5451,31 +5443,31 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.801552810668512</v>
+        <v>0.628721589036711</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>101</v>
+        <v>5.47</v>
       </c>
       <c r="K56" t="n">
-        <v>0.219765342960289</v>
+        <v>0.0272880991735537</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.06507779253476</v>
+        <v>-0.114209615389823</v>
       </c>
       <c r="M56" t="n">
-        <v>1.46410031513468</v>
+        <v>0.142507860333757</v>
       </c>
       <c r="N56" t="n">
-        <v>0.217589448475533</v>
+        <v>0.49886835783462</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5484,7 +5476,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5534,17 +5526,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.615408445713287</v>
+        <v>0.461094715546865</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5553,16 +5545,16 @@
         <v>104.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0655250218923614</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.743381382160528</v>
+        <v>-0.950982655594905</v>
       </c>
       <c r="M57" t="n">
-        <v>0.339955382610982</v>
+        <v>0.226590079470693</v>
       </c>
       <c r="N57" t="n">
-        <v>0.06270337023192479</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>

--- a/trend_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
+++ b/trend_results/Rivers/RangitikeiatMangaweka_71217ded7b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -154,34 +154,43 @@
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -569,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,13 +672,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.954531081798624</v>
+        <v>0.96714632114134</v>
       </c>
       <c r="G2">
-        <v>0.025</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="H2">
-        <v>0.825</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -678,16 +687,16 @@
         <v>3.525</v>
       </c>
       <c r="K2">
-        <v>-0.923074786531361</v>
+        <v>-1.03943804163316</v>
       </c>
       <c r="L2">
-        <v>-2.83291782081079</v>
+        <v>-2.50378327990258</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.0530378970067995</v>
       </c>
       <c r="N2">
-        <v>-26.1865187668471</v>
+        <v>-29.4876040179621</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -702,19 +711,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,37 +737,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.387424211081439</v>
+        <v>0.0030371819767459</v>
       </c>
       <c r="G3">
-        <v>0.0833333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H3">
-        <v>0.708333333333333</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.825</v>
+        <v>0.48</v>
       </c>
       <c r="K3">
-        <v>-0.0313848996514842</v>
+        <v>-0.199293154761905</v>
       </c>
       <c r="L3">
-        <v>-0.119566515358092</v>
+        <v>-0.40540314269698</v>
       </c>
       <c r="M3">
-        <v>0.0770033470507288</v>
+        <v>-0.0520992650228233</v>
       </c>
       <c r="N3">
-        <v>-3.80423026078596</v>
+        <v>-41.5194072420635</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -773,19 +782,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,31 +814,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.252346342651449</v>
+        <v>0.747653657348551</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.913793103448276</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.68</v>
+        <v>10.82</v>
       </c>
       <c r="K4">
-        <v>-0.0183871106592403</v>
+        <v>0.0266836765941063</v>
       </c>
       <c r="L4">
-        <v>-0.079927179617864</v>
+        <v>-0.0301308290762905</v>
       </c>
       <c r="M4">
-        <v>0.0449823855852178</v>
+        <v>0.0737344611076183</v>
       </c>
       <c r="N4">
-        <v>-0.172163957483524</v>
+        <v>0.246614386267156</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -844,19 +853,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.0605890767635879</v>
+        <v>0.009784479994567901</v>
       </c>
       <c r="G5">
         <v>0.186440677966102</v>
@@ -891,22 +900,22 @@
         <v>0.008</v>
       </c>
       <c r="K5">
-        <v>0.0005217857142857</v>
+        <v>0.0008152901785714001</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0012552741833148</v>
+        <v>0.0014343528521697</v>
       </c>
       <c r="N5">
-        <v>6.52232142857143</v>
+        <v>10.1911272321429</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1840431.652</v>
@@ -915,19 +924,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,40 +953,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.241717087834905</v>
+        <v>0.0721489473708863</v>
       </c>
       <c r="G6">
-        <v>0.0847457627118644</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H6">
-        <v>0.559322033898305</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>34.4</v>
       </c>
       <c r="K6">
-        <v>2.12973760932945</v>
+        <v>4.81648351648352</v>
       </c>
       <c r="L6">
-        <v>-3.14926424272574</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.86371631040477</v>
+        <v>11.675409723324</v>
       </c>
       <c r="N6">
-        <v>7.09912536443149</v>
+        <v>14.001405571173</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1840431.652</v>
@@ -986,19 +995,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,16 +1027,16 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>0.691112384686239</v>
+        <v>0.235774310511099</v>
       </c>
       <c r="G7">
-        <v>0.781818181818182</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="H7">
-        <v>0.381818181818182</v>
+        <v>0.309090909090909</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1048,7 +1057,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1840431.652</v>
@@ -1057,19 +1066,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,10 +1098,10 @@
         <v>41</v>
       </c>
       <c r="F8">
-        <v>0.987103066140087</v>
+        <v>0.953044662361178</v>
       </c>
       <c r="G8">
-        <v>0.6610169491525421</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="H8">
         <v>0.0847457627118644</v>
@@ -1128,19 +1137,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="F9">
-        <v>0.0486272142195016</v>
+        <v>0.0320539574550168</v>
       </c>
       <c r="G9">
         <v>0.203389830508475</v>
@@ -1172,25 +1181,25 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="K9">
-        <v>0.0014967891483516</v>
+        <v>0.0048690443485086</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0053232283615616</v>
+        <v>0.0123010263694716</v>
       </c>
       <c r="N9">
-        <v>3.18465776245032</v>
+        <v>9.738088697017259</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1840431.652</v>
@@ -1199,19 +1208,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1231,37 +1240,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.170344295256892</v>
+        <v>0.600627758000846</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.810344827586207</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.324999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="K10">
-        <v>-0.0259042553191484</v>
+        <v>0.0071152597402595</v>
       </c>
       <c r="L10">
-        <v>-0.0652427502805594</v>
+        <v>-0.0446639222428192</v>
       </c>
       <c r="M10">
-        <v>0.0196857231168641</v>
+        <v>0.0579761904761917</v>
       </c>
       <c r="N10">
-        <v>-0.311162226055836</v>
+        <v>0.08603699806843521</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1840431.652</v>
@@ -1270,16 +1279,16 @@
         <v>5589532.919</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,37 +1308,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.138250240041716</v>
+        <v>0.0181792765863954</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.796610169491525</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="K11">
-        <v>0.0017464531004709</v>
+        <v>0.0062117346938775</v>
       </c>
       <c r="L11">
-        <v>-0.0016557339194305</v>
+        <v>0.000605356716539</v>
       </c>
       <c r="M11">
-        <v>0.0066785103345331</v>
+        <v>0.0125066701797015</v>
       </c>
       <c r="N11">
-        <v>3.4244178440607</v>
+        <v>11.7202541393916</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1840431.652</v>
@@ -1338,19 +1347,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,40 +1376,40 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.171533561615585</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.508474576271186</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.0099819678099968</v>
       </c>
       <c r="L12">
-        <v>-0.0072771501263714</v>
+        <v>-0.004969387755102</v>
       </c>
       <c r="M12">
-        <v>0.0200239371792003</v>
+        <v>0.0251532055366553</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.65464520666455</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1840431.652</v>
@@ -1409,19 +1418,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,7 +1450,7 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0357505877900832</v>
+        <v>0.0286860616634344</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1453,25 +1462,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="K13">
-        <v>0.0029973622508792</v>
+        <v>0.0025541958041958</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.005797619047619</v>
+        <v>0.0052177738281766</v>
       </c>
       <c r="N13">
-        <v>14.2731535756155</v>
+        <v>15.9637237762238</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1840431.652</v>
@@ -1480,19 +1489,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.414296537609323</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1524,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.86</v>
+        <v>4.57</v>
       </c>
       <c r="K14">
-        <v>0.158217682528258</v>
+        <v>0.605996600180469</v>
       </c>
       <c r="L14">
-        <v>-0.349181275158223</v>
+        <v>-0.07924717658183569</v>
       </c>
       <c r="M14">
-        <v>0.767558742913922</v>
+        <v>1.74634623189814</v>
       </c>
       <c r="N14">
-        <v>3.25550787095181</v>
+        <v>13.2603194787849</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1840431.652</v>
@@ -1551,19 +1560,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,37 +1592,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.834099274449224</v>
+        <v>0.290925844108303</v>
       </c>
       <c r="G15">
-        <v>0.010989010989011</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="H15">
-        <v>0.7692307692307691</v>
+        <v>0.819277108433735</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="K15">
-        <v>-0.127264808362369</v>
+        <v>0.0467071611253197</v>
       </c>
       <c r="L15">
-        <v>-0.419336377539299</v>
+        <v>-0.139339023600482</v>
       </c>
       <c r="M15">
-        <v>0.0669038263500502</v>
+        <v>0.270684098957119</v>
       </c>
       <c r="N15">
-        <v>-4.04015264642442</v>
+        <v>1.63884775878315</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1840431.652</v>
@@ -1622,19 +1631,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1654,31 +1663,31 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.248133293898503</v>
+        <v>0.138105129499615</v>
       </c>
       <c r="G16">
-        <v>0.0392156862745098</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H16">
-        <v>0.57843137254902</v>
+        <v>0.561224489795918</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16">
-        <v>0.88</v>
+        <v>0.5575</v>
       </c>
       <c r="K16">
-        <v>-0.0100343406593407</v>
+        <v>-0.0183236294273031</v>
       </c>
       <c r="L16">
-        <v>-0.0745512765525517</v>
+        <v>-0.0601617587927768</v>
       </c>
       <c r="M16">
-        <v>0.0195618783880824</v>
+        <v>0.0113364433645578</v>
       </c>
       <c r="N16">
-        <v>-1.14026598401599</v>
+        <v>-3.28674967305885</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
@@ -1693,19 +1702,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,31 +1734,31 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.739600848597707</v>
+        <v>0.957181808240416</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.871794871794872</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
       <c r="K17">
-        <v>0.0100343406593404</v>
+        <v>0.0253137080779446</v>
       </c>
       <c r="L17">
-        <v>-0.0153971148223454</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0343918258631582</v>
+        <v>0.0508580350020704</v>
       </c>
       <c r="N17">
-        <v>0.09421916112056759</v>
+        <v>0.238134600921397</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
@@ -1764,19 +1773,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,10 +1805,10 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.175957357127556</v>
+        <v>0.542367120781323</v>
       </c>
       <c r="G18">
-        <v>0.134453781512605</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="H18">
         <v>0.151260504201681</v>
@@ -1814,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="M18">
-        <v>0.0003312012434283</v>
+        <v>0.0001429549902152</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1826,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1840431.652</v>
@@ -1835,19 +1844,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,40 +1873,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.394833508731778</v>
+        <v>0.721891910230631</v>
       </c>
       <c r="G19">
         <v>0.0588235294117647</v>
       </c>
       <c r="H19">
-        <v>0.495798319327731</v>
+        <v>0.5630252100840339</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>30</v>
+        <v>39.2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.618611929307806</v>
       </c>
       <c r="L19">
-        <v>-1.59362815382397</v>
+        <v>-3.34478021978022</v>
       </c>
       <c r="M19">
-        <v>2.0163323466511</v>
+        <v>1.28500345510828</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-1.57809165639746</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q19">
         <v>1840431.652</v>
@@ -1906,19 +1915,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,31 +1947,31 @@
         <v>42</v>
       </c>
       <c r="F20">
-        <v>0.313914249377251</v>
+        <v>0.122034848701322</v>
       </c>
       <c r="G20">
-        <v>0.849557522123894</v>
+        <v>0.823008849557522</v>
       </c>
       <c r="H20">
-        <v>0.433628318584071</v>
+        <v>0.460176991150442</v>
       </c>
       <c r="I20">
         <v>35</v>
       </c>
       <c r="J20">
-        <v>0.0055931064437715</v>
+        <v>0.0062870959729973</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-1.79864124374922E-05</v>
       </c>
       <c r="L20">
-        <v>-4.07102075222384E-05</v>
+        <v>-0.0001300677928854</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-0.286084585232079</v>
       </c>
       <c r="O20" t="s">
         <v>44</v>
@@ -1977,19 +1986,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,13 +2018,13 @@
         <v>41</v>
       </c>
       <c r="F21">
-        <v>0.984222390388982</v>
+        <v>0.997166654577651</v>
       </c>
       <c r="G21">
-        <v>0.571428571428571</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="H21">
-        <v>0.0840336134453782</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2039,7 +2048,7 @@
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q21">
         <v>1840431.652</v>
@@ -2048,19 +2057,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,40 +2086,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0024912204494716</v>
+        <v>0.0676407564081416</v>
       </c>
       <c r="G22">
-        <v>0.218487394957983</v>
+        <v>0.210084033613445</v>
       </c>
       <c r="H22">
-        <v>0.680672268907563</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>0.0471</v>
+        <v>0.052</v>
       </c>
       <c r="K22">
-        <v>0.0012542925824175</v>
+        <v>0.0004994871794871001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0033271698737628</v>
+        <v>0.0028717241591107</v>
       </c>
       <c r="N22">
-        <v>2.66304157625814</v>
+        <v>0.960552268244577</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1840431.652</v>
@@ -2119,19 +2128,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,40 +2157,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.10420923096668</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.641025641025641</v>
+        <v>0.632478632478632</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.31</v>
+        <v>8.32</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-0.011125494974109</v>
       </c>
       <c r="L23">
-        <v>-0.017476076555024</v>
+        <v>-0.0259273891997039</v>
       </c>
       <c r="M23">
-        <v>0.0175609576529431</v>
+        <v>0.0049775533390005</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-0.133719891515733</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>1840431.652</v>
@@ -2190,16 +2199,16 @@
         <v>5589532.919</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,37 +2228,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0175391450698089</v>
+        <v>0.164939107960228</v>
       </c>
       <c r="G24">
         <v>0.0336134453781513</v>
       </c>
       <c r="H24">
-        <v>0.65546218487395</v>
+        <v>0.605042016806723</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="K24">
-        <v>0.0018105679156908</v>
+        <v>0.0009938775510204001</v>
       </c>
       <c r="L24">
-        <v>0.0004442885350358</v>
+        <v>-0.0003342721223126</v>
       </c>
       <c r="M24">
-        <v>0.0035737062570863</v>
+        <v>0.0025563443388689</v>
       </c>
       <c r="N24">
-        <v>3.41616587866201</v>
+        <v>1.80705009276438</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1840431.652</v>
@@ -2258,19 +2267,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,28 +2299,28 @@
         <v>41</v>
       </c>
       <c r="F25">
-        <v>0.416447724335859</v>
+        <v>0.6244899448261551</v>
       </c>
       <c r="G25">
         <v>0.0252100840336134</v>
       </c>
       <c r="H25">
-        <v>0.453781512605042</v>
+        <v>0.378151260504202</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.161</v>
+        <v>0.17</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>-0.0024965823650034</v>
+        <v>-0.0039830970556161</v>
       </c>
       <c r="M25">
-        <v>0.0044537775409377</v>
+        <v>0.0025001983668541</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2320,7 +2329,7 @@
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1840431.652</v>
@@ -2329,19 +2338,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,40 +2367,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>0.159351452359003</v>
+        <v>0.437448614627519</v>
       </c>
       <c r="G26">
         <v>0.008403361344537799</v>
       </c>
       <c r="H26">
-        <v>0.453781512605042</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="K26">
-        <v>0.0004993164730006</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.0002004727066295</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="M26">
-        <v>0.001194959282732</v>
+        <v>0.0008308689717925</v>
       </c>
       <c r="N26">
-        <v>2.6279814368457</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1840431.652</v>
@@ -2400,19 +2409,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2432,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.11487572544421</v>
+        <v>0.347616382240549</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2444,25 +2453,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4.57</v>
+        <v>4.81</v>
       </c>
       <c r="K27">
-        <v>0.0802747252747253</v>
+        <v>0.0358478735005452</v>
       </c>
       <c r="L27">
-        <v>-0.0533962388690321</v>
+        <v>-0.142851444354412</v>
       </c>
       <c r="M27">
-        <v>0.211343312648285</v>
+        <v>0.176129543400878</v>
       </c>
       <c r="N27">
-        <v>1.75655853992834</v>
+        <v>0.745278035354371</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1840431.652</v>
@@ -2471,19 +2480,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2503,37 +2512,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.718831744402007</v>
+        <v>0.400813152115123</v>
       </c>
       <c r="G28">
-        <v>0.0070921985815602</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="H28">
-        <v>0.765957446808511</v>
+        <v>0.773722627737226</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K28">
-        <v>-0.0393486288204539</v>
+        <v>0.0100960715818596</v>
       </c>
       <c r="L28">
-        <v>-0.229346647172575</v>
+        <v>-0.108496812173334</v>
       </c>
       <c r="M28">
-        <v>0.06279218875693091</v>
+        <v>0.132698147833899</v>
       </c>
       <c r="N28">
-        <v>-1.22964465063918</v>
+        <v>0.320510208947924</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1840431.652</v>
@@ -2542,19 +2551,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,40 +2580,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>0.388222784623672</v>
+        <v>0.338083671394621</v>
       </c>
       <c r="G29">
-        <v>0.0516129032258065</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H29">
-        <v>0.47741935483871</v>
+        <v>0.460526315789474</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="K29">
-        <v>-0.0014334772370486</v>
+        <v>-0.0029263956031379</v>
       </c>
       <c r="L29">
-        <v>-0.0251455107685165</v>
+        <v>-0.0245786333240952</v>
       </c>
       <c r="M29">
-        <v>0.014874997989426</v>
+        <v>0.0139544970911248</v>
       </c>
       <c r="N29">
-        <v>-0.159275248560963</v>
+        <v>-0.406443833769166</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q29">
         <v>1840431.652</v>
@@ -2613,19 +2622,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,13 +2654,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.10413675905423</v>
+        <v>0.362733773987435</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.84180790960452</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2660,22 +2669,22 @@
         <v>10.79</v>
       </c>
       <c r="K30">
-        <v>-0.0175283965399705</v>
+        <v>-0.0038761060117423</v>
       </c>
       <c r="L30">
-        <v>-0.0339729593800503</v>
+        <v>-0.0243766377953636</v>
       </c>
       <c r="M30">
-        <v>0.0034029416592457</v>
+        <v>0.0120276248210205</v>
       </c>
       <c r="N30">
-        <v>-0.162450384985825</v>
+        <v>-0.0359231326389468</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q30">
         <v>1840431.652</v>
@@ -2684,19 +2693,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,10 +2725,10 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>2.64568706298622E-05</v>
+        <v>0.0008848448244654</v>
       </c>
       <c r="G31">
-        <v>0.195530726256983</v>
+        <v>0.173184357541899</v>
       </c>
       <c r="H31">
         <v>0.106145251396648</v>
@@ -2731,22 +2740,22 @@
         <v>0.007</v>
       </c>
       <c r="K31">
-        <v>0.0002502569373072</v>
+        <v>0.0001822833580032</v>
       </c>
       <c r="L31">
-        <v>0.0001425231687985</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.000334478021978</v>
+        <v>0.0002998768472906</v>
       </c>
       <c r="N31">
-        <v>3.57509910438996</v>
+        <v>2.60404797147505</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1840431.652</v>
@@ -2755,19 +2764,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2787,37 +2796,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.904609772278784</v>
+        <v>0.9602753019697809</v>
       </c>
       <c r="G32">
         <v>0.0391061452513966</v>
       </c>
       <c r="H32">
-        <v>0.5195530726256981</v>
+        <v>0.5418994413407821</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>-0.750770811921891</v>
+        <v>-1.2537607269056</v>
       </c>
       <c r="L32">
-        <v>-2.08454474379915</v>
+        <v>-2.82804895131101</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>-1.92505336390228</v>
+        <v>-2.98514458787048</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1840431.652</v>
@@ -2826,19 +2835,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,16 +2867,16 @@
         <v>41</v>
       </c>
       <c r="F33">
-        <v>0.924205958455488</v>
+        <v>0.9333806574331061</v>
       </c>
       <c r="G33">
-        <v>0.767441860465116</v>
+        <v>0.738372093023256</v>
       </c>
       <c r="H33">
         <v>0.453488372093023</v>
       </c>
       <c r="I33">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>0.0061308264437037</v>
@@ -2876,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-1.44703186191549E-05</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2888,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q33">
         <v>1840431.652</v>
@@ -2897,19 +2906,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,13 +2938,13 @@
         <v>41</v>
       </c>
       <c r="F34">
-        <v>0.76446753349209</v>
+        <v>0.9355195814184269</v>
       </c>
       <c r="G34">
-        <v>0.609467455621302</v>
+        <v>0.625698324022346</v>
       </c>
       <c r="H34">
-        <v>0.0769230769230769</v>
+        <v>0.07262569832402239</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2959,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q34">
         <v>1840431.652</v>
@@ -2968,19 +2977,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,16 +3006,16 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>0.0216695751187248</v>
+        <v>0.0133244587752573</v>
       </c>
       <c r="G35">
-        <v>0.218934911242604</v>
+        <v>0.223463687150838</v>
       </c>
       <c r="H35">
-        <v>0.627218934911243</v>
+        <v>0.614525139664804</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -3015,22 +3024,22 @@
         <v>0.0471</v>
       </c>
       <c r="K35">
-        <v>0.0003885638297872</v>
+        <v>0.0003999635394534</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0017229274052023</v>
+        <v>0.0016751121497017</v>
       </c>
       <c r="N35">
-        <v>0.824976284049329</v>
+        <v>0.849179489285476</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1840431.652</v>
@@ -3039,19 +3048,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3071,37 +3080,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.748186017139436</v>
+        <v>0.660296307310076</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.5657142857142859</v>
+        <v>0.5340909090909089</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>8.289999999999999</v>
+        <v>8.295</v>
       </c>
       <c r="K36">
-        <v>0.0054732767232767</v>
+        <v>0.0027318706989874</v>
       </c>
       <c r="L36">
-        <v>-0.0044195633368514</v>
+        <v>-0.0050551829783106</v>
       </c>
       <c r="M36">
-        <v>0.0150264013883628</v>
+        <v>0.0112606153502034</v>
       </c>
       <c r="N36">
-        <v>0.066022638398996</v>
+        <v>0.0329339445326998</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q36">
         <v>1840431.652</v>
@@ -3110,16 +3119,16 @@
         <v>5589532.919</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,34 +3145,34 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>0.230344910878995</v>
+        <v>0.109679421832086</v>
       </c>
       <c r="G37">
-        <v>0.0335195530726257</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="H37">
-        <v>0.664804469273743</v>
+        <v>0.642458100558659</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0.055</v>
       </c>
       <c r="K37">
-        <v>0.0004695679245134</v>
+        <v>0.0006799160198884</v>
       </c>
       <c r="L37">
-        <v>-0.0002505065498391</v>
+        <v>-0.0001121292762441</v>
       </c>
       <c r="M37">
-        <v>0.0014051008814533</v>
+        <v>0.001669184538909</v>
       </c>
       <c r="N37">
-        <v>0.853759862751778</v>
+        <v>1.23621094525169</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
@@ -3178,19 +3187,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,13 +3219,13 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.765259015704746</v>
+        <v>0.851298837445621</v>
       </c>
       <c r="G38">
         <v>0.0167597765363128</v>
       </c>
       <c r="H38">
-        <v>0.435754189944134</v>
+        <v>0.441340782122905</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3225,22 +3234,22 @@
         <v>0.16</v>
       </c>
       <c r="K38">
-        <v>-0.0003537710329983</v>
+        <v>-0.0009547789761414</v>
       </c>
       <c r="L38">
-        <v>-0.0026117189719905</v>
+        <v>-0.0033340940209949</v>
       </c>
       <c r="M38">
-        <v>0.0008361664716326</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-0.221106895623973</v>
+        <v>-0.596736860088427</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q38">
         <v>1840431.652</v>
@@ -3249,19 +3258,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3281,28 +3290,28 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <v>0.459654578148452</v>
+        <v>0.5115433571620071</v>
       </c>
       <c r="G39">
-        <v>0.0223463687150838</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="H39">
-        <v>0.363128491620112</v>
+        <v>0.379888268156425</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0002508585164835</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M39">
-        <v>0.0004283343355645</v>
+        <v>0.0003334094020994</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3311,7 +3320,7 @@
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1840431.652</v>
@@ -3320,19 +3329,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3352,7 +3361,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.287210209543955</v>
+        <v>0.442749070389279</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3364,25 +3373,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>4.76</v>
+        <v>4.81</v>
       </c>
       <c r="K40">
-        <v>0.0204718818880705</v>
+        <v>0.0024115077430112</v>
       </c>
       <c r="L40">
-        <v>-0.0429060275631487</v>
+        <v>-0.063962178022996</v>
       </c>
       <c r="M40">
-        <v>0.07989964440222749</v>
+        <v>0.06747843343748811</v>
       </c>
       <c r="N40">
-        <v>0.43008155227039</v>
+        <v>0.0501352961125003</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1840431.652</v>
@@ -3391,19 +3400,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3420,40 +3429,40 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.480207429549083</v>
+        <v>0.174122722034251</v>
       </c>
       <c r="G41">
-        <v>0.0404040404040404</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="I41">
         <v>3</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-0.0080421989847748</v>
       </c>
       <c r="L41">
-        <v>-0.0179628519583965</v>
+        <v>-0.0222428320993687</v>
       </c>
       <c r="M41">
-        <v>0.0135028642676089</v>
+        <v>0.0036594837767233</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-0.837729060914043</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q41">
         <v>1840431.652</v>
@@ -3462,19 +3471,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3482,7 +3491,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3491,40 +3500,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.180205253847773</v>
+        <v>0.058476557662918</v>
       </c>
       <c r="G42">
-        <v>0.20627802690583</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.103139013452915</v>
+        <v>0.842364532019704</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.008</v>
+        <v>10.88</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.0182791173794358</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-0.0334924285494965</v>
       </c>
       <c r="M42">
-        <v>0.0001251284686536</v>
+        <v>0.0001497644432099</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.16800659356099</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q42">
         <v>1840431.652</v>
@@ -3533,19 +3542,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3553,49 +3562,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
       <c r="F43">
-        <v>0.950916231392374</v>
+        <v>0.209858276683158</v>
       </c>
       <c r="G43">
-        <v>0.0493273542600897</v>
+        <v>0.2</v>
       </c>
       <c r="H43">
-        <v>0.488789237668161</v>
+        <v>0.0978723404255319</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>40</v>
+        <v>0.008</v>
       </c>
       <c r="K43">
-        <v>-0.767600700525394</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>-1.72266760235401</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>9.994076529344671E-05</v>
       </c>
       <c r="N43">
-        <v>-1.91900175131349</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1840431.652</v>
@@ -3604,19 +3613,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3624,49 +3633,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.669628903671552</v>
+        <v>0.9655179413400931</v>
       </c>
       <c r="G44">
-        <v>0.7906976744186049</v>
+        <v>0.0468085106382979</v>
       </c>
       <c r="H44">
-        <v>0.413953488372093</v>
+        <v>0.523404255319149</v>
       </c>
       <c r="I44">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.0055035635964501</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-0.800182565038795</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-1.7288789046321</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-2.00045641259699</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q44">
         <v>1840431.652</v>
@@ -3675,19 +3684,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3695,37 +3704,37 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>41</v>
       </c>
       <c r="F45">
-        <v>0.7328965364116</v>
+        <v>0.50185132233674</v>
       </c>
       <c r="G45">
-        <v>0.200980392156863</v>
+        <v>0.775330396475771</v>
       </c>
       <c r="H45">
-        <v>0.563725490196078</v>
+        <v>0.414096916299559</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="J45">
-        <v>0.0535</v>
+        <v>0.0055035635964501</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0005854937764354</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3737,7 +3746,7 @@
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1840431.652</v>
@@ -3746,19 +3755,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3766,7 +3775,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3775,40 +3784,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>0.948887108745892</v>
+        <v>0.652412843772428</v>
       </c>
       <c r="G46">
-        <v>0.0403587443946188</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="H46">
-        <v>0.645739910313901</v>
+        <v>0.550925925925926</v>
       </c>
       <c r="I46">
         <v>4</v>
       </c>
       <c r="J46">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="K46">
-        <v>-0.0005465261260347</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-0.0012567354947291</v>
+        <v>-0.0003567056077004</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>-0.942286424197805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q46">
         <v>1840431.652</v>
@@ -3817,19 +3826,19 @@
         <v>5589532.919</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3837,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -3849,37 +3858,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.397194829496365</v>
+        <v>0.837941703587172</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.910313901345291</v>
+        <v>0.5311004784689</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3.66</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K47">
-        <v>0.0049899030996177</v>
+        <v>0.0057181996086105</v>
       </c>
       <c r="L47">
-        <v>-0.035671477472544</v>
+        <v>-0.0026682164813938</v>
       </c>
       <c r="M47">
-        <v>0.0476515949870092</v>
+        <v>0.0133027482122367</v>
       </c>
       <c r="N47">
-        <v>0.136336150262781</v>
+        <v>0.0690603817465045</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q47">
         <v>1840431.652</v>
@@ -3888,19 +3897,16 @@
         <v>5589532.919</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V47" t="s">
-        <v>59</v>
-      </c>
-      <c r="W47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3908,49 +3914,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.40324797025367</v>
+        <v>0.901416075699346</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0382978723404255</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.625531914893617</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>0.438</v>
+        <v>0.056</v>
       </c>
       <c r="K48">
-        <v>-0.0195186352204483</v>
+        <v>-0.0003706867388362</v>
       </c>
       <c r="L48">
-        <v>-0.142471337026116</v>
+        <v>-0.0010196829727937</v>
       </c>
       <c r="M48">
-        <v>0.0622699481774426</v>
+        <v>5.19269182592713E-05</v>
       </c>
       <c r="N48">
-        <v>-4.45630941106126</v>
+        <v>-0.66194060506476</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q48">
         <v>1840431.652</v>
@@ -3959,66 +3965,69 @@
         <v>5589532.919</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0.59617914996281</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.013953488372093</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.381395348837209</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>101.67</v>
+        <v>0.154</v>
       </c>
       <c r="K49">
-        <v>-1.4356981662689</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>-12.7370931853861</v>
+        <v>-0.0011211283907792</v>
       </c>
       <c r="M49">
-        <v>6.19560009762211</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N49">
-        <v>-1.41211583187656</v>
+        <v>0</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q49">
         <v>1840431.652</v>
@@ -4027,66 +4036,69 @@
         <v>5589532.919</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.341271349062873</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.325581395348837</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>5.72</v>
+        <v>0.019</v>
       </c>
       <c r="K50">
-        <v>-0.100613478435651</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>-1.66805862789537</v>
+        <v>-0.0001436058639966</v>
       </c>
       <c r="M50">
-        <v>0.5233476820269301</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="N50">
-        <v>-1.75897689572817</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q50">
         <v>1840431.652</v>
@@ -4095,66 +4107,69 @@
         <v>5589532.919</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.360257393568128</v>
+        <v>0.297739958877281</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.91063829787234</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.445</v>
+        <v>3.66</v>
       </c>
       <c r="K51">
-        <v>-0.0026814368117462</v>
+        <v>0.0124829118250171</v>
       </c>
       <c r="L51">
-        <v>-0.0279805959269245</v>
+        <v>-0.0231590427308893</v>
       </c>
       <c r="M51">
-        <v>0.0128679548556875</v>
+        <v>0.0572988360221416</v>
       </c>
       <c r="N51">
-        <v>-0.602570070055326</v>
+        <v>0.341063164617953</v>
       </c>
       <c r="O51" t="s">
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q51">
         <v>1840431.652</v>
@@ -4163,95 +4178,98 @@
         <v>5589532.919</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.438</v>
+      </c>
+      <c r="K52">
+        <v>0.0397302205093251</v>
+      </c>
+      <c r="L52">
+        <v>-0.0986845347853863</v>
+      </c>
+      <c r="M52">
+        <v>0.08506196949591691</v>
+      </c>
+      <c r="N52">
+        <v>9.07082660030253</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q52">
+        <v>1840431.652</v>
+      </c>
+      <c r="R52">
+        <v>5589532.919</v>
+      </c>
+      <c r="S52" t="s">
+        <v>59</v>
+      </c>
+      <c r="T52" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" t="s">
+        <v>61</v>
+      </c>
+      <c r="V52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52">
-        <v>0.5</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0.8</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>102.835</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>-2.80333244058695</v>
-      </c>
-      <c r="M52">
-        <v>1.31203069227047</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>44</v>
-      </c>
-      <c r="P52" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q52">
-        <v>1840431.652</v>
-      </c>
-      <c r="R52">
-        <v>5589532.919</v>
-      </c>
-      <c r="S52" t="s">
-        <v>56</v>
-      </c>
-      <c r="T52" t="s">
-        <v>57</v>
-      </c>
-      <c r="U52" t="s">
-        <v>58</v>
-      </c>
-      <c r="V52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4260,7 +4278,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.762862824616335</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4272,25 +4290,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.3885</v>
+        <v>101.67</v>
       </c>
       <c r="K53">
-        <v>0.0871034285714285</v>
+        <v>1.10889481969153</v>
       </c>
       <c r="L53">
-        <v>-0.241993684835935</v>
+        <v>-11.4103645915712</v>
       </c>
       <c r="M53">
-        <v>0.233478568238782</v>
+        <v>6.19560009762211</v>
       </c>
       <c r="N53">
-        <v>1.61646893516616</v>
+        <v>1.09068045607508</v>
       </c>
       <c r="O53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q53">
         <v>1840431.652</v>
@@ -4299,27 +4317,27 @@
         <v>5589532.919</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4328,7 +4346,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.371278410963289</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4340,25 +4358,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.457</v>
+        <v>5.72</v>
       </c>
       <c r="K54">
-        <v>-0.0021432762836185</v>
+        <v>0.504678407382991</v>
       </c>
       <c r="L54">
-        <v>-0.0116672658755917</v>
+        <v>-0.59187215796552</v>
       </c>
       <c r="M54">
-        <v>0.0073578686748205</v>
+        <v>1.23666425448388</v>
       </c>
       <c r="N54">
-        <v>-0.468988245868399</v>
+        <v>8.823049080122219</v>
       </c>
       <c r="O54" t="s">
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q54">
         <v>1840431.652</v>
@@ -4367,27 +4385,27 @@
         <v>5589532.919</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4396,37 +4414,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.636394959175223</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>101.67</v>
+        <v>0.4645</v>
       </c>
       <c r="K55">
-        <v>0.108715015548645</v>
+        <v>-0.0063281874722345</v>
       </c>
       <c r="L55">
-        <v>-1.26259683170601</v>
+        <v>-0.0279805959269245</v>
       </c>
       <c r="M55">
-        <v>1.30159647383563</v>
+        <v>0.0118892013822715</v>
       </c>
       <c r="N55">
-        <v>0.106929296300428</v>
+        <v>-1.36236544073941</v>
       </c>
       <c r="O55" t="s">
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q55">
         <v>1840431.652</v>
@@ -4435,27 +4453,27 @@
         <v>5589532.919</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4464,37 +4482,37 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.628721589036711</v>
+        <v>0.673288952622341</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.47</v>
+        <v>102.375</v>
       </c>
       <c r="K56">
-        <v>0.0272880991735537</v>
+        <v>0.232368571428572</v>
       </c>
       <c r="L56">
-        <v>-0.114209615389823</v>
+        <v>-1.9845393897837</v>
       </c>
       <c r="M56">
-        <v>0.142507860333757</v>
+        <v>1.71067558307591</v>
       </c>
       <c r="N56">
-        <v>0.49886835783462</v>
+        <v>0.226977847549276</v>
       </c>
       <c r="O56" t="s">
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q56">
         <v>1840431.652</v>
@@ -4503,84 +4521,356 @@
         <v>5589532.919</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.635</v>
+      </c>
+      <c r="K57">
+        <v>0.0659797217868338</v>
+      </c>
+      <c r="L57">
+        <v>-0.241993684835935</v>
+      </c>
+      <c r="M57">
+        <v>0.255564943395886</v>
+      </c>
+      <c r="N57">
+        <v>1.17089124732624</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q57">
+        <v>1840431.652</v>
+      </c>
+      <c r="R57">
+        <v>5589532.919</v>
+      </c>
+      <c r="S57" t="s">
+        <v>59</v>
+      </c>
+      <c r="T57" t="s">
+        <v>60</v>
+      </c>
+      <c r="U57" t="s">
+        <v>61</v>
+      </c>
+      <c r="V57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.462</v>
+      </c>
+      <c r="K58">
+        <v>-0.000356689453125</v>
+      </c>
+      <c r="L58">
+        <v>-0.008778940841545501</v>
+      </c>
+      <c r="M58">
+        <v>0.0079230757331809</v>
+      </c>
+      <c r="N58">
+        <v>-0.0772055093344157</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58">
+        <v>1840431.652</v>
+      </c>
+      <c r="R58">
+        <v>5589532.919</v>
+      </c>
+      <c r="S58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T58" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="V58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="C57">
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.401614328726867</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>103.08</v>
+      </c>
+      <c r="K59">
+        <v>-0.101031268791341</v>
+      </c>
+      <c r="L59">
+        <v>-1.56383042986536</v>
+      </c>
+      <c r="M59">
+        <v>0.256334889611072</v>
+      </c>
+      <c r="N59">
+        <v>-0.0980124842756511</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59">
+        <v>1840431.652</v>
+      </c>
+      <c r="R59">
+        <v>5589532.919</v>
+      </c>
+      <c r="S59" t="s">
+        <v>59</v>
+      </c>
+      <c r="T59" t="s">
+        <v>60</v>
+      </c>
+      <c r="U59" t="s">
+        <v>61</v>
+      </c>
+      <c r="V59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.83885020206404</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.55</v>
+      </c>
+      <c r="K60">
+        <v>0.0469517024426351</v>
+      </c>
+      <c r="L60">
+        <v>-0.0662690533658551</v>
+      </c>
+      <c r="M60">
+        <v>0.164105129950548</v>
+      </c>
+      <c r="N60">
+        <v>0.845976620588019</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q60">
+        <v>1840431.652</v>
+      </c>
+      <c r="R60">
+        <v>5589532.919</v>
+      </c>
+      <c r="S60" t="s">
+        <v>59</v>
+      </c>
+      <c r="T60" t="s">
+        <v>60</v>
+      </c>
+      <c r="U60" t="s">
+        <v>61</v>
+      </c>
+      <c r="V60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
         <v>20</v>
       </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
         <v>43</v>
       </c>
-      <c r="F57">
-        <v>0.461094715546865</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>0.75</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>104.5</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>-0.950982655594905</v>
-      </c>
-      <c r="M57">
-        <v>0.226590079470693</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>44</v>
-      </c>
-      <c r="P57" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q57">
-        <v>1840431.652</v>
-      </c>
-      <c r="R57">
-        <v>5589532.919</v>
-      </c>
-      <c r="S57" t="s">
-        <v>56</v>
-      </c>
-      <c r="T57" t="s">
-        <v>57</v>
-      </c>
-      <c r="U57" t="s">
-        <v>58</v>
-      </c>
-      <c r="V57" t="s">
-        <v>59</v>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>103.54</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>-0.903124212037368</v>
+      </c>
+      <c r="M61">
+        <v>0.256019550653788</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>44</v>
+      </c>
+      <c r="P61" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61">
+        <v>1840431.652</v>
+      </c>
+      <c r="R61">
+        <v>5589532.919</v>
+      </c>
+      <c r="S61" t="s">
+        <v>59</v>
+      </c>
+      <c r="T61" t="s">
+        <v>60</v>
+      </c>
+      <c r="U61" t="s">
+        <v>61</v>
+      </c>
+      <c r="V61" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
